--- a/medicine/Enfance/Fantômette_fait_tout_sauter/Fantômette_fait_tout_sauter.xlsx
+++ b/medicine/Enfance/Fantômette_fait_tout_sauter/Fantômette_fait_tout_sauter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_fait_tout_sauter</t>
+          <t>Fantômette_fait_tout_sauter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette fait tout sauter est le 35e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_fait_tout_sauter</t>
+          <t>Fantômette_fait_tout_sauter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette fait tout sauter a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_fait_tout_sauter</t>
+          <t>Fantômette_fait_tout_sauter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_fait_tout_sauter</t>
+          <t>Fantômette_fait_tout_sauter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,15 +600,17 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1977 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 4)
 En se promenant en ville avec ses amies Ficelle et Boulotte, Françoise a cru reconnaître la silhouette du Furet. Le soir même, elle apprend aux actualités régionales que le bandit s'est évadé récemment de prison.
 La nuit suivante, aidée par Œil de Lynx qui, à sa demande, lui prête l'usage d'un avion publicitaire appartenant à son journal, Fantômette suit la camionnette piloté par les complices du Furet. La bande de voleurs compte attaquer un fourgon de transport de fonds. Fantômette fait dévier le trajet du fourgon : le Furet et ses complices ne peuvent plus attaquer le fourgon blindé. Il est en rage lorsqu'il comprend que c'est Fantômette qui s'est jouée de lui.
 Premier délit imposé à Fantômette (chapitres 5 à 8)
-Le Furet a échafaudé un plan pour se venger de Fantômette. Il monte un fausse cabine de diffusion d'une radio locale (« radio Framboisy ») et propose à Ficelle de venir faire la speakerine pour évoquer tous les sujets qui lui passeront par la tête. La jeune fille accepte bien volontiers et quitte Boulotte et la maison avec Alpaga, déguisé en chef d'entreprise et se faisant appeler Frank Einstein[3]. La jeune fille est amenée à la fausse cabine de la radio. Puis le Furet et ses complices se rendent au domicile de Famtômette. Ils exercent un chantage : ou bien l'aventurière accepte de travailler pour eux ; ou bien elle refuse et Ficelle sera exécutée.
-Le Furet expose à Fantômette son premier délit : voler le diadème de la duchesse de Ménilmontant-Belleville exposé dans un musée. La jeune aventurière est bien obligée de procéder au cambriolage. Elle a le temps, pendant quelques secondes, de téléphoner à Œil de Lynx pour lui indiquer qu'elle est obligée de commettre un délit pour sauver la vie de Ficelle. Soudain surgit le gardien du musée, le père Hoquet[4], qui met en fuite Fantômette. Celle-ci remet le précieux diadème au Furet.
+Le Furet a échafaudé un plan pour se venger de Fantômette. Il monte un fausse cabine de diffusion d'une radio locale (« radio Framboisy ») et propose à Ficelle de venir faire la speakerine pour évoquer tous les sujets qui lui passeront par la tête. La jeune fille accepte bien volontiers et quitte Boulotte et la maison avec Alpaga, déguisé en chef d'entreprise et se faisant appeler Frank Einstein. La jeune fille est amenée à la fausse cabine de la radio. Puis le Furet et ses complices se rendent au domicile de Famtômette. Ils exercent un chantage : ou bien l'aventurière accepte de travailler pour eux ; ou bien elle refuse et Ficelle sera exécutée.
+Le Furet expose à Fantômette son premier délit : voler le diadème de la duchesse de Ménilmontant-Belleville exposé dans un musée. La jeune aventurière est bien obligée de procéder au cambriolage. Elle a le temps, pendant quelques secondes, de téléphoner à Œil de Lynx pour lui indiquer qu'elle est obligée de commettre un délit pour sauver la vie de Ficelle. Soudain surgit le gardien du musée, le père Hoquet, qui met en fuite Fantômette. Celle-ci remet le précieux diadème au Furet.
 Le lendemain, toute la ville pense que Fantômette est devenue une voleuse, à l'exception d'Œil de Lynx. Et pendant ce temps, Ficelle continue à débuter sornettes sur sornettes à son (faux) poste de radio. Fantômette est détenue prisonnière par le Furet.
 Deuxième délit imposé à Fantômette (chapitres 9 et 10)
 Le Furet a échafaudé un deuxième plan : se rendre à l'hypermarché Éléphant pour procéder au vol des recettes de la semaine. On est samedi soir et les caisses seront pleines. Il ordonne à Fantômette de contacter Œil de Lynx et de lui demander de se rendre à 22h à l’entrée de la grande surface. Fantômette est obligée de respecter les ordres du bandit. Le soir même, Fantômette va à l'hypermarché, commet une attaque à main armée et s'enfuit à bord de la voiture d'Œil de Lynx, laissant ce dernier abasourdi sur le trottoir. Elle a juste le temps de lui demander de rechercher Ficelle et, pour cela, de rencontrer « Jojo-la-Brocante ».
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_fait_tout_sauter</t>
+          <t>Fantômette_fait_tout_sauter</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,9 +650,11 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette[5], indique en page 150 que ce roman a donné lieu à une adaptation en bande dessinée sous le titre Fantômette se déchaîne.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Bannier, dans son essai Les microsociétés de la littérature pour la jeunesse - L'exemple de Fantômette, indique en page 150 que ce roman a donné lieu à une adaptation en bande dessinée sous le titre Fantômette se déchaîne.
 </t>
         </is>
       </c>
